--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\Sales_RevenueReport-Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\NovaPasta\Sales_RevenueReport-Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045B3C3F-6ADA-4FE6-A647-A61FF2D9BED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483C0F1-B2EA-414C-ADE2-8A26AA1918B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -210,18 +210,6 @@
     <t>ReplaceMailVendor</t>
   </si>
   <si>
-    <t>FirstInvoiceNumber</t>
-  </si>
-  <si>
-    <t>FirstUnitCostBrl</t>
-  </si>
-  <si>
-    <t>FirstQty</t>
-  </si>
-  <si>
-    <t>FirstTotalBrl</t>
-  </si>
-  <si>
     <t>FileTemplate</t>
   </si>
   <si>
@@ -247,18 +235,6 @@
   </si>
   <si>
     <t>CellTerms</t>
-  </si>
-  <si>
-    <t>B18</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>G18</t>
   </si>
   <si>
     <t>TaxStates</t>
@@ -319,6 +295,33 @@
   </si>
   <si>
     <t>Relatório de Vendas – Consolidado por Vendedor</t>
+  </si>
+  <si>
+    <t>ColumnInvoiceNumber</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ColumnUnitCostBrl</t>
+  </si>
+  <si>
+    <t>ColumnQty</t>
+  </si>
+  <si>
+    <t>ColumnTotalBrl</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>FirstLineItems</t>
   </si>
 </sst>
 </file>
@@ -697,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -810,7 +813,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -842,7 +845,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -850,7 +853,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -858,141 +861,148 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="B16" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2000000</v>
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5">
-        <v>30</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="B26" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1960,6 +1970,7 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
